--- a/요구사항명세서.xlsx
+++ b/요구사항명세서.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>요구사항명세서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,26 +253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>진행중게시물보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료된게시물보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재날짜를 기준으로 설문마감일이 이후 인 게시물 리스트를 보여줌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재날짜를 기준으로 설문마감일이 이전 인 게시물 리스트를 보여줌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생각의반영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>서비스명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -282,6 +262,30 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문진행중게시물보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문완료된게시물보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화게시물보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입이 '대화'인 게시물 보여줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입이'설문'이고 상태가'진행중'인 게시물을 보여줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입이'설문'이고 상태가'종료'인 게시물을 보여줌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -756,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -784,7 +788,7 @@
     </row>
     <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -1004,7 +1008,7 @@
         <v>50</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1012,7 +1016,7 @@
         <v>51</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1020,7 +1024,7 @@
         <v>52</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1028,7 +1032,7 @@
         <v>53</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1052,26 +1056,29 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/요구사항명세서.xlsx
+++ b/요구사항명세서.xlsx
@@ -105,10 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비밀번호, 전화번호, 생년월일, 성별, 관심주제 변경가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>내가작성한글</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,10 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>작성자가 본인인 게시물을 보여줌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>내가 참여한 설문글을 보여줌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -286,6 +278,14 @@
   </si>
   <si>
     <t>타입이'설문'이고 상태가'종료'인 게시물을 보여줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호, 전화번호, 생년월일, 성별 변경가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자가 본인인 게시물을 보여줌------------------------------?얘네는 테이블 설정 어떻게하지?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -760,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -788,7 +788,7 @@
     </row>
     <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -891,194 +891,194 @@
         <v>20</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="G21" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="G22" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E25" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E27" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E28" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/요구사항명세서.xlsx
+++ b/요구사항명세서.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
   <si>
     <t>요구사항명세서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -285,7 +285,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>작성자가 본인인 게시물을 보여줌------------------------------?얘네는 테이블 설정 어떻게하지?</t>
+    <t>작성자가 본인인 게시물을 보여줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생각보기(게시물보기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물 상세보기 이전에 게시물의 타입, 작성자, 제목 을 미리볼 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 아이디(e-mail)당 한번만 참여할 수 있으며, 재참여는 할 수 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문참여(참여전)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문참여(참여후)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문결과보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 선택한 문항에 대한 표시와, 총 참여인원, 각 문항에대한 참여인원을 볼 수 있음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -758,17 +790,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.875" style="4" customWidth="1"/>
     <col min="2" max="2" width="25.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
@@ -1045,39 +1077,69 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G44" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G45" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G46" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G47" s="5" t="s">
         <v>63</v>
       </c>
     </row>
